--- a/build/gulpkit/pug_tmp_engine/sitemap.xlsx
+++ b/build/gulpkit/pug_tmp_engine/sitemap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\build\pug_tmp_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\build\gulpkit\pug_tmp_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA06B5-5E72-4E90-B8F9-7F732692C6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66151617-B885-4E2F-9072-E8A5CEC771DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1335" windowWidth="24855" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>../src/_template.pug</t>
+    <t>../../src/_template.pug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
